--- a/SYP/SprintBacklog.xlsx
+++ b/SYP/SprintBacklog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Downloads\ChatApp-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\Schule\Schuljahr_2018_19\POS\LIN\Programme\Apps\ChatApp\SYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E42B03-91E6-4364-88B2-1CD905D1A955}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014D7286-73E6-4700-BD75-6AD8B7803EAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{799D5466-8E12-4B38-90AA-62DFED506447}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{799D5466-8E12-4B38-90AA-62DFED506447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -52,7 +53,118 @@
     <t>DB entwerfen</t>
   </si>
   <si>
-    <t>Userstories umsetzten</t>
+    <t>Userstories umsetzten:</t>
+  </si>
+  <si>
+    <t>Profil löschen</t>
+  </si>
+  <si>
+    <t>Profil bearbeiten</t>
+  </si>
+  <si>
+    <t>Einzelchat</t>
+  </si>
+  <si>
+    <t>Gruppenchat</t>
+  </si>
+  <si>
+    <t>Registrieren</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Fremde User adden</t>
+  </si>
+  <si>
+    <t>Benutzer/Chats anzeigen</t>
+  </si>
+  <si>
+    <t>Anmeldedaten speichern</t>
+  </si>
+  <si>
+    <t>Gilgenreiner Daniel</t>
+  </si>
+  <si>
+    <t>Kleinegger Max</t>
+  </si>
+  <si>
+    <t>Drabosenig Andreas</t>
+  </si>
+  <si>
+    <t>Lotteritsch Andreas</t>
+  </si>
+  <si>
+    <t>Nachrichten anzeigen (Push notifications)</t>
+  </si>
+  <si>
+    <t>Beim Löschen vom User: Nachrichten, Chats, co löschen</t>
+  </si>
+  <si>
+    <t>Gruppenchat-Jeder kann leute hinzufügen, jeder kann leaven (ab 0 leute chat löschen)</t>
+  </si>
+  <si>
+    <t>Gruppenteilnehmer anzeigen</t>
+  </si>
+  <si>
+    <t>Projekt bei allen fixen</t>
+  </si>
+  <si>
+    <t>Nachricht gesehen anzeigen</t>
+  </si>
+  <si>
+    <t>Bilder speichern, senden</t>
+  </si>
+  <si>
+    <t>Settings activity</t>
+  </si>
+  <si>
+    <t>Toast überarbeiten</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Passwort zurücksetzen</t>
+  </si>
+  <si>
+    <t>Kleinegger</t>
+  </si>
+  <si>
+    <t>Gilgenreiner</t>
+  </si>
+  <si>
+    <t>Lotteritsch</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Lotteritsch, Kleinegger, Gilgenreiner</t>
+  </si>
+  <si>
+    <t>Drabosenig</t>
+  </si>
+  <si>
+    <t>Bearbeiten überarbeiten - GUI</t>
+  </si>
+  <si>
+    <t>Profil löschen überarbeiten - GUI</t>
+  </si>
+  <si>
+    <t>Register überarbeiten - GUI</t>
+  </si>
+  <si>
+    <t>Login überarbeiten - GUI</t>
+  </si>
+  <si>
+    <t>Chats / Contacts listitems überarbeiten - GUI</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Tab Freundschaftsanfragen</t>
   </si>
 </sst>
 </file>
@@ -510,15 +622,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADA3A7-0DDF-4F64-8808-A37D37CD5D51}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,23 +646,271 @@
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3495D801-5D95-4768-B538-823D6707A5F4}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
